--- a/Scrum/Scrum board.xlsx
+++ b/Scrum/Scrum board.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme\Desktop\ES\ES_gantProject\Scrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\letic\IdeaProjects\ES_gantProject\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0612F20-42FD-4196-AB90-DD26581D5538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B543E3-78C1-4905-9960-21E27BB14F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown Chart" sheetId="1" r:id="rId1"/>
@@ -602,9 +602,40 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -625,37 +656,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -810,7 +810,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -959,16 +959,16 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2259,102 +2259,102 @@
   <dimension ref="B1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="73.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="15" width="10" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10" customWidth="1"/>
-    <col min="17" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="46" t="s">
+    <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:20" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="B2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="48"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="38"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B4" s="40" t="s">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B4" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E4" s="33">
         <v>44845</v>
       </c>
-      <c r="F4" s="43">
+      <c r="F4" s="33">
         <v>44846</v>
       </c>
-      <c r="G4" s="43">
+      <c r="G4" s="33">
         <v>44847</v>
       </c>
-      <c r="H4" s="43">
+      <c r="H4" s="33">
         <v>44848</v>
       </c>
-      <c r="I4" s="43">
+      <c r="I4" s="33">
         <v>44849</v>
       </c>
-      <c r="J4" s="43">
+      <c r="J4" s="33">
         <v>44850</v>
       </c>
-      <c r="K4" s="43">
+      <c r="K4" s="33">
         <v>44851</v>
       </c>
-      <c r="L4" s="43">
+      <c r="L4" s="33">
         <v>44852</v>
       </c>
-      <c r="M4" s="43">
+      <c r="M4" s="33">
         <v>44853</v>
       </c>
-      <c r="N4" s="43">
+      <c r="N4" s="33">
         <v>44854</v>
       </c>
-      <c r="O4" s="45">
+      <c r="O4" s="34">
         <v>44855</v>
       </c>
     </row>
-    <row r="5" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="32"/>
-      <c r="C5" s="31"/>
+    <row r="5" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="43"/>
+      <c r="C5" s="41"/>
       <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B6" s="23">
         <v>1</v>
       </c>
@@ -2416,7 +2416,7 @@
       <c r="N6" s="7"/>
       <c r="O6" s="8"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B7" s="25">
         <v>2</v>
       </c>
@@ -2440,11 +2440,11 @@
       <c r="N7" s="10"/>
       <c r="O7" s="11"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B8" s="25">
         <v>3</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="35" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="28">
@@ -2462,7 +2462,7 @@
       <c r="N8" s="10"/>
       <c r="O8" s="11"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B9" s="25">
         <v>4</v>
       </c>
@@ -2484,7 +2484,7 @@
       <c r="N9" s="10"/>
       <c r="O9" s="11"/>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B10" s="25">
         <v>5</v>
       </c>
@@ -2506,7 +2506,7 @@
       <c r="N10" s="10"/>
       <c r="O10" s="11"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B11" s="25">
         <v>6</v>
       </c>
@@ -2528,7 +2528,7 @@
       <c r="N11" s="10"/>
       <c r="O11" s="11"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B12" s="25">
         <v>7</v>
       </c>
@@ -2545,12 +2545,14 @@
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
+      <c r="L12" s="10">
+        <v>1</v>
+      </c>
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
       <c r="O12" s="11"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B13" s="25">
         <v>8</v>
       </c>
@@ -2567,12 +2569,14 @@
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
+      <c r="L13" s="10">
+        <v>1</v>
+      </c>
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
       <c r="O13" s="11"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B14" s="25">
         <v>9</v>
       </c>
@@ -2594,7 +2598,7 @@
       <c r="N14" s="10"/>
       <c r="O14" s="11"/>
     </row>
-    <row r="15" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="25">
         <v>10</v>
       </c>
@@ -2616,119 +2620,119 @@
       <c r="N15" s="10"/>
       <c r="O15" s="11"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="37" t="s">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B16" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="38"/>
+      <c r="C16" s="49"/>
       <c r="D16" s="3">
         <v>0</v>
       </c>
       <c r="E16" s="16">
-        <f>SUM(E6:E15)</f>
+        <f t="shared" ref="E16:O16" si="0">SUM(E6:E15)</f>
         <v>0</v>
       </c>
       <c r="F16" s="16">
-        <f>SUM(F6:F15)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G16" s="16">
-        <f>SUM(G6:G15)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H16" s="16">
-        <f>SUM(H6:H15)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I16" s="16">
-        <f>SUM(I6:I15)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J16" s="16">
-        <f>SUM(J6:J15)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K16" s="16">
-        <f>SUM(K6:K15)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L16" s="16">
-        <f>SUM(L6:L15)</f>
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M16" s="16">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M16" s="16">
-        <f>SUM(M6:M15)</f>
+      <c r="N16" s="16">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N16" s="16">
-        <f>SUM(N6:N15)</f>
+      <c r="O16" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O16" s="3">
-        <f>SUM(O6:O15)</f>
-        <v>0</v>
-      </c>
-      <c r="T16" s="39"/>
+      <c r="T16" s="31"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="33" t="s">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B17" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="34"/>
+      <c r="C17" s="45"/>
       <c r="D17" s="19">
         <f>SUM(D6:D16)</f>
         <v>10</v>
       </c>
       <c r="E17" s="20">
-        <f>D17-SUM(E6:E15)</f>
+        <f t="shared" ref="E17:O17" si="1">D17-SUM(E6:E15)</f>
         <v>10</v>
       </c>
       <c r="F17" s="17">
-        <f>E17-SUM(F6:F15)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="G17" s="17">
-        <f>F17-SUM(G6:G15)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="H17" s="17">
-        <f>G17-SUM(H6:H15)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I17" s="17">
-        <f>H17-SUM(I6:I15)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="J17" s="15">
-        <f>I17-SUM(J6:J15)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="K17" s="15">
-        <f>J17-SUM(K6:K15)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="L17" s="15">
-        <f>K17-SUM(L6:L15)</f>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="M17" s="15">
-        <f>L17-SUM(M6:M15)</f>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="N17" s="17">
-        <f>M17-SUM(N6:N15)</f>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="O17" s="18">
-        <f>N17-SUM(O6:O15)</f>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
     </row>
-    <row r="18" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="35" t="s">
+    <row r="18" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="36"/>
+      <c r="C18" s="47"/>
       <c r="D18" s="21">
         <f>D17</f>
         <v>10</v>
@@ -2780,13 +2784,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="B2:O2"/>
     <mergeCell ref="B3:O3"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Scrum/Scrum board.xlsx
+++ b/Scrum/Scrum board.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme\Desktop\ES\ES_gantProject\Scrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\Faculdade\3ºano\1º Semestre\ES\1ºfase\ES_gantProject\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBCF88E-8601-4CA1-BB26-FBD832617BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F302CD-BA45-4DF8-8443-B30296F1A959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
   <si>
     <t>Task Description</t>
   </si>
@@ -134,6 +134,18 @@
   </si>
   <si>
     <t>1º Sprint</t>
+  </si>
+  <si>
+    <t>2º Sprint</t>
+  </si>
+  <si>
+    <t>1º functionality</t>
+  </si>
+  <si>
+    <t>2º functionality</t>
+  </si>
+  <si>
+    <t>Guilherme          Joana                 Leticia</t>
   </si>
 </sst>
 </file>
@@ -211,7 +223,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -388,11 +400,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -442,6 +495,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -723,28 +785,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:H17"/>
+  <dimension ref="B3:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="5" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" customWidth="1"/>
+    <col min="3" max="5" width="14.1796875" customWidth="1"/>
+    <col min="7" max="8" width="17.7265625" customWidth="1"/>
+    <col min="9" max="9" width="17.54296875" customWidth="1"/>
+    <col min="10" max="10" width="17.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="17" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
-    </row>
-    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G3" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+    </row>
+    <row r="5" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B6" s="11" t="s">
         <v>0</v>
       </c>
@@ -757,14 +828,30 @@
       <c r="E6" s="15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="14"/>
       <c r="E7" s="16"/>
-    </row>
-    <row r="8" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="2:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
@@ -777,8 +864,16 @@
       <c r="E8" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="2:10" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
@@ -791,8 +886,16 @@
       <c r="E9" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="2:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
@@ -806,7 +909,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
@@ -820,7 +923,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="4" t="s">
         <v>5</v>
       </c>
@@ -834,7 +937,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
@@ -849,7 +952,7 @@
       </c>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
@@ -863,7 +966,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
         <v>8</v>
       </c>
@@ -877,7 +980,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="4" t="s">
         <v>9</v>
       </c>
@@ -891,7 +994,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="6" t="s">
         <v>10</v>
       </c>
@@ -906,7 +1009,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>

--- a/Scrum/Scrum board.xlsx
+++ b/Scrum/Scrum board.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\Faculdade\3ºano\1º Semestre\ES\1ºfase\ES_gantProject\Scrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\letic\OneDrive\Ambiente de Trabalho\ES\ES_gantProject\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F302CD-BA45-4DF8-8443-B30296F1A959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE402A9-EA63-48ED-A8FF-3CA06AA74718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
   <si>
     <t>Task Description</t>
   </si>
@@ -146,13 +146,34 @@
   </si>
   <si>
     <t>Guilherme          Joana                 Leticia</t>
+  </si>
+  <si>
+    <t>1º functionality tests</t>
+  </si>
+  <si>
+    <t>2º functionality tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use cases </t>
+  </si>
+  <si>
+    <t>Metrics</t>
+  </si>
+  <si>
+    <t>Demo video</t>
+  </si>
+  <si>
+    <t>Final Delivarable</t>
+  </si>
+  <si>
+    <t>4º Sprint</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +217,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -445,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -475,6 +504,33 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -492,18 +548,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -785,73 +829,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:J17"/>
+  <dimension ref="B3:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3:T3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.453125" customWidth="1"/>
-    <col min="3" max="5" width="14.1796875" customWidth="1"/>
-    <col min="7" max="8" width="17.7265625" customWidth="1"/>
-    <col min="9" max="9" width="17.54296875" customWidth="1"/>
-    <col min="10" max="10" width="17.90625" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="5" width="14.21875" customWidth="1"/>
+    <col min="7" max="8" width="17.77734375" customWidth="1"/>
+    <col min="9" max="9" width="17.5546875" customWidth="1"/>
+    <col min="10" max="10" width="17.88671875" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" customWidth="1"/>
+    <col min="13" max="13" width="19.44140625" customWidth="1"/>
+    <col min="14" max="14" width="17" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" customWidth="1"/>
+    <col min="17" max="17" width="29" customWidth="1"/>
+    <col min="18" max="18" width="26.33203125" customWidth="1"/>
+    <col min="19" max="19" width="22.109375" customWidth="1"/>
+    <col min="20" max="20" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B3" s="17" t="s">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B3" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="G3" s="17" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="G3" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-    </row>
-    <row r="5" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B6" s="11" t="s">
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="Q3" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+    </row>
+    <row r="5" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B6" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="16"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="16"/>
-    </row>
-    <row r="8" spans="2:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q6" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="R6" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="S6" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="T6" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="25"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="25"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="25"/>
+    </row>
+    <row r="8" spans="2:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
@@ -867,13 +941,19 @@
       <c r="G8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="11" t="s">
         <v>34</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="2:10" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Q8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R8" s="15"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="2"/>
+    </row>
+    <row r="9" spans="2:20" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
@@ -886,16 +966,22 @@
       <c r="E9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="13" t="s">
         <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="2:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R9" s="15"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="2"/>
+    </row>
+    <row r="10" spans="2:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
@@ -908,8 +994,14 @@
       <c r="E10" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q10" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="2"/>
+    </row>
+    <row r="11" spans="2:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
@@ -922,8 +1014,14 @@
       <c r="E11" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="2:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q11" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="2"/>
+    </row>
+    <row r="12" spans="2:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>5</v>
       </c>
@@ -936,8 +1034,14 @@
       <c r="E12" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="2:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q12" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="2"/>
+    </row>
+    <row r="13" spans="2:20" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
@@ -951,8 +1055,14 @@
         <v>24</v>
       </c>
       <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="2:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q13" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="3"/>
+    </row>
+    <row r="14" spans="2:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
@@ -966,7 +1076,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>8</v>
       </c>
@@ -980,7 +1090,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
         <v>9</v>
       </c>
@@ -994,7 +1104,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="6" t="s">
         <v>10</v>
       </c>
@@ -1009,17 +1119,22 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="15">
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="B3:E3"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="B3:E3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Scrum/Scrum board.xlsx
+++ b/Scrum/Scrum board.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\letic\OneDrive\Ambiente de Trabalho\ES\ES_gantProject\Scrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme\Desktop\ES\ES_gantProject\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE402A9-EA63-48ED-A8FF-3CA06AA74718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DC2A8D-9D24-434F-8371-B2FF84D23B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-132" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="44">
   <si>
     <t>Task Description</t>
   </si>
@@ -167,6 +167,14 @@
   </si>
   <si>
     <t>4º Sprint</t>
+  </si>
+  <si>
+    <t>3º Sprint</t>
+  </si>
+  <si>
+    <t>Guilherme
+Joana
+Leticia</t>
   </si>
 </sst>
 </file>
@@ -831,28 +839,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3:T3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
-    <col min="3" max="5" width="14.21875" customWidth="1"/>
-    <col min="7" max="8" width="17.77734375" customWidth="1"/>
-    <col min="9" max="9" width="17.5546875" customWidth="1"/>
-    <col min="10" max="10" width="17.88671875" customWidth="1"/>
-    <col min="12" max="12" width="19.33203125" customWidth="1"/>
-    <col min="13" max="13" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="5" width="14.28515625" customWidth="1"/>
+    <col min="7" max="8" width="17.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" customWidth="1"/>
     <col min="14" max="14" width="17" customWidth="1"/>
-    <col min="15" max="15" width="15.6640625" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" customWidth="1"/>
     <col min="17" max="17" width="29" customWidth="1"/>
-    <col min="18" max="18" width="26.33203125" customWidth="1"/>
-    <col min="19" max="19" width="22.109375" customWidth="1"/>
+    <col min="18" max="18" width="26.28515625" customWidth="1"/>
+    <col min="19" max="19" width="22.140625" customWidth="1"/>
     <col min="20" max="20" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3" s="19" t="s">
         <v>30</v>
       </c>
@@ -865,6 +873,12 @@
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
       <c r="J3" s="19"/>
+      <c r="L3" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
       <c r="Q3" s="19" t="s">
         <v>41</v>
       </c>
@@ -872,8 +886,8 @@
       <c r="S3" s="19"/>
       <c r="T3" s="19"/>
     </row>
-    <row r="5" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
         <v>0</v>
       </c>
@@ -898,6 +912,18 @@
       <c r="J6" s="24" t="s">
         <v>13</v>
       </c>
+      <c r="L6" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="24" t="s">
+        <v>13</v>
+      </c>
       <c r="Q6" s="20" t="s">
         <v>0</v>
       </c>
@@ -911,7 +937,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
       <c r="D7" s="23"/>
@@ -920,12 +946,16 @@
       <c r="H7" s="21"/>
       <c r="I7" s="23"/>
       <c r="J7" s="25"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="25"/>
       <c r="Q7" s="21"/>
       <c r="R7" s="21"/>
       <c r="S7" s="23"/>
       <c r="T7" s="25"/>
     </row>
-    <row r="8" spans="2:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
@@ -946,6 +976,14 @@
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="2"/>
+      <c r="L8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="8"/>
+      <c r="O8" s="2"/>
       <c r="Q8" s="1" t="s">
         <v>35</v>
       </c>
@@ -953,7 +991,7 @@
       <c r="S8" s="14"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="2:20" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:20" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
@@ -974,6 +1012,16 @@
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="3"/>
+      <c r="L9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="O9" s="3"/>
       <c r="Q9" s="1" t="s">
         <v>36</v>
       </c>
@@ -981,7 +1029,7 @@
       <c r="S9" s="14"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="2:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
@@ -1001,7 +1049,7 @@
       <c r="S10" s="14"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" spans="2:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
@@ -1021,7 +1069,7 @@
       <c r="S11" s="14"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="2:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>5</v>
       </c>
@@ -1041,7 +1089,7 @@
       <c r="S12" s="14"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" spans="2:20" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:20" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
@@ -1062,7 +1110,7 @@
       <c r="S13" s="16"/>
       <c r="T13" s="3"/>
     </row>
-    <row r="14" spans="2:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
@@ -1076,7 +1124,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>8</v>
       </c>
@@ -1090,7 +1138,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>9</v>
       </c>
@@ -1104,7 +1152,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
         <v>10</v>
       </c>
@@ -1119,22 +1167,27 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="20">
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="B3:E3"/>
     <mergeCell ref="Q3:T3"/>
     <mergeCell ref="Q6:Q7"/>
     <mergeCell ref="R6:R7"/>
     <mergeCell ref="S6:S7"/>
     <mergeCell ref="T6:T7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Scrum/Scrum board.xlsx
+++ b/Scrum/Scrum board.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme\Desktop\ES\ES_gantProject\Scrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\Documents\Universidade\ES\ES_gantProject\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DC2A8D-9D24-434F-8371-B2FF84D23B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE190DF4-78EE-4EFA-8266-C11DD0CB9DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-132" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
   <si>
     <t>Task Description</t>
   </si>
@@ -536,26 +536,26 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -839,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,99 +861,99 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="G3" s="19" t="s">
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="G3" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="L3" s="19" t="s">
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="L3" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="Q3" s="19" t="s">
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="Q3" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
     </row>
     <row r="5" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="M6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="22" t="s">
+      <c r="N6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="O6" s="24" t="s">
+      <c r="O6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="20" t="s">
+      <c r="Q6" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="R6" s="20" t="s">
+      <c r="R6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="S6" s="22" t="s">
+      <c r="S6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="T6" s="24" t="s">
+      <c r="T6" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="25"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="25"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="25"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="25"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="24"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="24"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="24"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="24"/>
     </row>
     <row r="8" spans="2:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
@@ -1011,7 +1011,9 @@
         <v>16</v>
       </c>
       <c r="I9" s="9"/>
-      <c r="J9" s="3"/>
+      <c r="J9" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="L9" s="12" t="s">
         <v>33</v>
       </c>
@@ -1021,7 +1023,9 @@
       <c r="N9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="O9" s="3"/>
+      <c r="O9" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="Q9" s="1" t="s">
         <v>36</v>
       </c>
@@ -1045,7 +1049,9 @@
       <c r="Q10" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="R10" s="14"/>
+      <c r="R10" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="S10" s="14"/>
       <c r="T10" s="2"/>
     </row>
@@ -1085,7 +1091,9 @@
       <c r="Q12" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="R12" s="14"/>
+      <c r="R12" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="S12" s="14"/>
       <c r="T12" s="2"/>
     </row>
@@ -1168,26 +1176,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="O6:O7"/>
     <mergeCell ref="L3:O3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Scrum/Scrum board.xlsx
+++ b/Scrum/Scrum board.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\Documents\Universidade\ES\ES_gantProject\Scrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\disnoca\Documents\Universidade\ES\GantProject\ES_gantProject\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE190DF4-78EE-4EFA-8266-C11DD0CB9DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B48A745-3BB3-4D04-B3C1-786A41CC6570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="44">
   <si>
     <t>Task Description</t>
   </si>
@@ -482,7 +482,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -536,6 +536,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -554,8 +557,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -840,7 +843,7 @@
   <dimension ref="B3:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,99 +864,99 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="G3" s="25" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="G3" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="L3" s="25" t="s">
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="L3" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="Q3" s="25" t="s">
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="Q3" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
     </row>
     <row r="5" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="L6" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="M6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="21" t="s">
+      <c r="N6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="O6" s="23" t="s">
+      <c r="O6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="19" t="s">
+      <c r="Q6" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="R6" s="19" t="s">
+      <c r="R6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="S6" s="21" t="s">
+      <c r="S6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="T6" s="23" t="s">
+      <c r="T6" s="24" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="24"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="24"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="24"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="24"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="25"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="25"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="25"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="25"/>
     </row>
     <row r="8" spans="2:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
@@ -974,15 +977,19 @@
       <c r="H8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="2"/>
+      <c r="I8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="26"/>
       <c r="L8" s="1" t="s">
         <v>32</v>
       </c>
       <c r="M8" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="N8" s="8"/>
+      <c r="N8" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="Q8" s="1" t="s">
         <v>35</v>
@@ -1049,7 +1056,7 @@
       <c r="Q10" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="R10" s="14" t="s">
+      <c r="R10" s="8" t="s">
         <v>16</v>
       </c>
       <c r="S10" s="14"/>
@@ -1071,7 +1078,9 @@
       <c r="Q11" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="R11" s="14"/>
+      <c r="R11" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="S11" s="14"/>
       <c r="T11" s="2"/>
     </row>
@@ -1091,7 +1100,7 @@
       <c r="Q12" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="R12" s="14" t="s">
+      <c r="R12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="S12" s="14"/>
@@ -1176,26 +1185,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="B3:E3"/>
     <mergeCell ref="Q3:T3"/>
     <mergeCell ref="Q6:Q7"/>
     <mergeCell ref="R6:R7"/>
     <mergeCell ref="S6:S7"/>
     <mergeCell ref="T6:T7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="L3:O3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Scrum/Scrum board.xlsx
+++ b/Scrum/Scrum board.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\Documents\Universidade\ES\ES_gantProject\Scrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\disnoca\Documents\Universidade\ES\GantProject\ES_gantProject\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE190DF4-78EE-4EFA-8266-C11DD0CB9DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13D385E-604D-4FFB-917F-1BECBFF594F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="44">
   <si>
     <t>Task Description</t>
   </si>
@@ -482,7 +482,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -536,6 +536,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -554,9 +557,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -840,7 +841,7 @@
   <dimension ref="B3:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,99 +862,99 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="G3" s="25" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="G3" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="L3" s="25" t="s">
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="L3" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="Q3" s="25" t="s">
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="Q3" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
     </row>
     <row r="5" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="L6" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="M6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="21" t="s">
+      <c r="N6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="O6" s="23" t="s">
+      <c r="O6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="19" t="s">
+      <c r="Q6" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="R6" s="19" t="s">
+      <c r="R6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="S6" s="21" t="s">
+      <c r="S6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="T6" s="23" t="s">
+      <c r="T6" s="24" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="24"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="24"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="24"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="24"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="25"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="25"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="25"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="25"/>
     </row>
     <row r="8" spans="2:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
@@ -982,7 +983,9 @@
       <c r="M8" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="N8" s="8"/>
+      <c r="N8" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="Q8" s="1" t="s">
         <v>35</v>
@@ -1049,7 +1052,7 @@
       <c r="Q10" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="R10" s="14" t="s">
+      <c r="R10" s="8" t="s">
         <v>16</v>
       </c>
       <c r="S10" s="14"/>
@@ -1071,7 +1074,9 @@
       <c r="Q11" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="R11" s="14"/>
+      <c r="R11" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="S11" s="14"/>
       <c r="T11" s="2"/>
     </row>
@@ -1091,7 +1096,7 @@
       <c r="Q12" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="R12" s="14" t="s">
+      <c r="R12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="S12" s="14"/>
@@ -1111,6 +1116,7 @@
         <v>24</v>
       </c>
       <c r="H13" s="10"/>
+      <c r="I13" s="26"/>
       <c r="Q13" s="18" t="s">
         <v>40</v>
       </c>
@@ -1176,26 +1182,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="B3:E3"/>
     <mergeCell ref="Q3:T3"/>
     <mergeCell ref="Q6:Q7"/>
     <mergeCell ref="R6:R7"/>
     <mergeCell ref="S6:S7"/>
     <mergeCell ref="T6:T7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="L3:O3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Scrum/Scrum board.xlsx
+++ b/Scrum/Scrum board.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\disnoca\Documents\Universidade\ES\GantProject\ES_gantProject\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13D385E-604D-4FFB-917F-1BECBFF594F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF7F01A-E3C5-4F5E-B686-D8CB4A649A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="44">
   <si>
     <t>Task Description</t>
   </si>
@@ -482,7 +482,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -536,28 +536,31 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -841,7 +844,7 @@
   <dimension ref="B3:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,30 +865,30 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="G3" s="19" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="G3" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="L3" s="19" t="s">
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="L3" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="Q3" s="19" t="s">
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="Q3" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
     </row>
     <row r="5" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
@@ -1032,7 +1035,9 @@
       <c r="Q9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R9" s="15"/>
+      <c r="R9" s="27" t="s">
+        <v>16</v>
+      </c>
       <c r="S9" s="14"/>
       <c r="T9" s="2"/>
     </row>
@@ -1055,8 +1060,12 @@
       <c r="R10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="S10" s="14"/>
-      <c r="T10" s="2"/>
+      <c r="S10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" spans="2:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
@@ -1077,8 +1086,12 @@
       <c r="R11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="S11" s="14"/>
-      <c r="T11" s="2"/>
+      <c r="S11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="12" spans="2:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
@@ -1099,8 +1112,12 @@
       <c r="R12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="S12" s="14"/>
-      <c r="T12" s="2"/>
+      <c r="S12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="13" spans="2:20" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
@@ -1116,13 +1133,17 @@
         <v>24</v>
       </c>
       <c r="H13" s="10"/>
-      <c r="I13" s="26"/>
+      <c r="I13" s="19"/>
       <c r="Q13" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="R13" s="16"/>
+      <c r="R13" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="S13" s="16"/>
-      <c r="T13" s="3"/>
+      <c r="T13" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="14" spans="2:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
@@ -1182,26 +1203,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="O6:O7"/>
     <mergeCell ref="L3:O3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Scrum/Scrum board.xlsx
+++ b/Scrum/Scrum board.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\disnoca\Documents\Universidade\ES\GantProject\ES_gantProject\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF7F01A-E3C5-4F5E-B686-D8CB4A649A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E556B760-8D8A-463B-B80A-48B3DA018534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="50">
   <si>
     <t>Task Description</t>
   </si>
@@ -175,6 +175,29 @@
     <t>Guilherme
 Joana
 Leticia</t>
+  </si>
+  <si>
+    <t>Leticia</t>
+  </si>
+  <si>
+    <t>Samuel
+Joana</t>
+  </si>
+  <si>
+    <t>Guilherme                                                          Samuel
+Joana
+Leticia</t>
+  </si>
+  <si>
+    <t>Guilherme                                        Samuel
+Joana
+Leticia</t>
+  </si>
+  <si>
+    <t>Samuel                                                              Leticia                                                         Guilherme                                                            Joana</t>
+  </si>
+  <si>
+    <t>not done because of reasons explained in the report</t>
   </si>
 </sst>
 </file>
@@ -226,8 +249,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
+      <sz val="7"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -521,15 +543,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -537,6 +550,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -555,11 +574,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -841,10 +863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:T17"/>
+  <dimension ref="B3:U17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,102 +886,102 @@
     <col min="20" max="20" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="26" t="s">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B3" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="G3" s="26" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="G3" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="L3" s="26" t="s">
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="L3" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="Q3" s="26" t="s">
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="Q3" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
     </row>
-    <row r="5" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="20" t="s">
+    <row r="5" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B6" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="M6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="22" t="s">
+      <c r="N6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="O6" s="24" t="s">
+      <c r="O6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="20" t="s">
+      <c r="Q6" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="R6" s="20" t="s">
+      <c r="R6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="S6" s="22" t="s">
+      <c r="S6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="T6" s="24" t="s">
+      <c r="T6" s="23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="25"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="25"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="25"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="25"/>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="24"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="24"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="24"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="24"/>
     </row>
-    <row r="8" spans="2:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:21" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
@@ -993,11 +1015,17 @@
       <c r="Q8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="R8" s="15"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="2"/>
+      <c r="R8" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="9" spans="2:20" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:21" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
@@ -1035,13 +1063,16 @@
       <c r="Q9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R9" s="27" t="s">
+      <c r="R9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="S9" s="14"/>
+      <c r="S9" s="8"/>
       <c r="T9" s="2"/>
+      <c r="U9" s="27" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="10" spans="2:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:21" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
@@ -1054,20 +1085,20 @@
       <c r="E10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Q10" s="17" t="s">
+      <c r="Q10" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="R10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="S10" s="8" t="s">
-        <v>16</v>
+      <c r="R10" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="S10" s="25" t="s">
+        <v>47</v>
       </c>
       <c r="T10" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:21" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
@@ -1080,20 +1111,20 @@
       <c r="E11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Q11" s="17" t="s">
+      <c r="Q11" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="R11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="S11" s="8" t="s">
-        <v>16</v>
+      <c r="R11" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="S11" s="25" t="s">
+        <v>47</v>
       </c>
       <c r="T11" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="2:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:21" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>5</v>
       </c>
@@ -1106,11 +1137,11 @@
       <c r="E12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Q12" s="17" t="s">
+      <c r="Q12" s="14" t="s">
         <v>39</v>
       </c>
       <c r="R12" s="8" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="S12" s="8" t="s">
         <v>16</v>
@@ -1119,7 +1150,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="2:20" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:21" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
@@ -1133,19 +1164,21 @@
         <v>24</v>
       </c>
       <c r="H13" s="10"/>
-      <c r="I13" s="19"/>
-      <c r="Q13" s="18" t="s">
+      <c r="I13" s="16"/>
+      <c r="Q13" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="R13" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="S13" s="16"/>
+      <c r="R13" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="S13" s="26" t="s">
+        <v>48</v>
+      </c>
       <c r="T13" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:21" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
@@ -1159,7 +1192,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:21" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>8</v>
       </c>
@@ -1173,7 +1206,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:21" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>9</v>
       </c>
@@ -1203,26 +1236,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="B3:E3"/>
     <mergeCell ref="Q3:T3"/>
     <mergeCell ref="Q6:Q7"/>
     <mergeCell ref="R6:R7"/>
     <mergeCell ref="S6:S7"/>
     <mergeCell ref="T6:T7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="L3:O3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Scrum/Scrum board.xlsx
+++ b/Scrum/Scrum board.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\disnoca\Documents\Universidade\ES\GantProject\ES_gantProject\Scrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme\Desktop\ES\ES_gantProject\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E556B760-8D8A-463B-B80A-48B3DA018534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1603AA9E-3C51-4C99-9CDB-6E26EED0960C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="50">
   <si>
     <t>Task Description</t>
   </si>
@@ -282,7 +282,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -496,6 +496,19 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -549,39 +562,41 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -865,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:U17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,99 +902,99 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="G3" s="18" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="G3" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="L3" s="18" t="s">
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="L3" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="Q3" s="18" t="s">
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="Q3" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
     </row>
     <row r="5" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="L6" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="M6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="21" t="s">
+      <c r="N6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="O6" s="23" t="s">
+      <c r="O6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="19" t="s">
+      <c r="Q6" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="R6" s="19" t="s">
+      <c r="R6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="S6" s="21" t="s">
+      <c r="S6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="T6" s="23" t="s">
+      <c r="T6" s="24" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="24"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="24"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="24"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="24"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="25"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="25"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="25"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
     </row>
     <row r="8" spans="2:21" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
@@ -1011,11 +1026,13 @@
       <c r="N8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="O8" s="2"/>
+      <c r="O8" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="Q8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="R8" s="17" t="s">
+      <c r="R8" s="16" t="s">
         <v>14</v>
       </c>
       <c r="S8" s="8" t="s">
@@ -1063,12 +1080,12 @@
       <c r="Q9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R9" s="17" t="s">
+      <c r="R9" s="16" t="s">
         <v>16</v>
       </c>
       <c r="S9" s="8"/>
       <c r="T9" s="2"/>
-      <c r="U9" s="27" t="s">
+      <c r="U9" s="19" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1088,10 +1105,10 @@
       <c r="Q10" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="R10" s="25" t="s">
+      <c r="R10" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="S10" s="25" t="s">
+      <c r="S10" s="17" t="s">
         <v>47</v>
       </c>
       <c r="T10" s="2" t="s">
@@ -1114,10 +1131,10 @@
       <c r="Q11" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="R11" s="25" t="s">
+      <c r="R11" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="S11" s="25" t="s">
+      <c r="S11" s="17" t="s">
         <v>47</v>
       </c>
       <c r="T11" s="2" t="s">
@@ -1164,14 +1181,13 @@
         <v>24</v>
       </c>
       <c r="H13" s="10"/>
-      <c r="I13" s="16"/>
       <c r="Q13" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="R13" s="26" t="s">
+      <c r="R13" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="S13" s="26" t="s">
+      <c r="S13" s="18" t="s">
         <v>48</v>
       </c>
       <c r="T13" s="3" t="s">
@@ -1236,26 +1252,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="O6:O7"/>
     <mergeCell ref="L3:O3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
